--- a/日报与周报-叶家俊2017.11.XX.xlsx
+++ b/日报与周报-叶家俊2017.11.XX.xlsx
@@ -149,7 +149,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -174,11 +174,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -513,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -565,122 +568,120 @@
       <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="I5:I9"/>
+  <mergeCells count="13">
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="E5:E9"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="F5:F9"/>
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="G5:G9"/>
+    <mergeCell ref="H2:H9"/>
+    <mergeCell ref="I2:I9"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D9"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
